--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_22.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_22.xlsx
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_22.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_22.xlsx
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
